--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_7_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_7_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1331308018560606</v>
+        <v>0.1608938545744234</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1331308018560606</v>
+        <v>0.1608938545744234</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.416247773868602</v>
+        <v>7.397655154538755</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.8028899583652942, 16.635385506102498]</t>
+          <t>[-2.83839447934772, 17.63370478842523]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1121713090390009</v>
+        <v>0.1524433584489739</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1121713090390009</v>
+        <v>0.1524433584489739</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.798789787641002</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.629026949191813, 0.03144737390980801]</t>
+          <t>[-4.006395436109506, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.05389700491117733</v>
+        <v>0.5522438347941148</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05389700491117733</v>
+        <v>0.5522438347941148</v>
       </c>
       <c r="T2" t="n">
-        <v>15.89120481405244</v>
+        <v>13.59083071794687</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.902005001906986, 20.880404626197894]</t>
+          <t>[8.200003829740513, 18.981657606153227]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.538834578824094e-08</v>
+        <v>7.09748791516418e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.538834578824094e-08</v>
+        <v>7.09748791516418e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.412812812812829</v>
+        <v>3.324824824824844</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.112112112112114</v>
+        <v>-7.856606606606645</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.93773773773777</v>
+        <v>14.50625625625633</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5151450198570904</v>
+        <v>0.3570822783852973</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5151450198570904</v>
+        <v>0.3570822783852973</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.9902229248682</v>
+        <v>6.169301499949657</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.745194158122252, 15.725640007858651]</t>
+          <t>[-5.648090892454154, 17.98669389235347]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3541519992845101</v>
+        <v>0.2986574807592417</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3541519992845101</v>
+        <v>0.2986574807592417</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.522052897234694</v>
+        <v>-0.8427896207828471</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.654211338651545, 1.610105544182157]</t>
+          <t>[-3.9812375369816593, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3329406802722239</v>
+        <v>0.5912705217958192</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3329406802722239</v>
+        <v>0.5912705217958192</v>
       </c>
       <c r="T3" t="n">
-        <v>16.34951701201828</v>
+        <v>17.9295470251978</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.387404475076416, 22.31162954896014]</t>
+          <t>[11.857577137450548, 24.00151691294505]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.584156713807516e-06</v>
+        <v>3.738171523437472e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.584156713807516e-06</v>
+        <v>3.738171523437472e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>5.426226226226238</v>
+        <v>3.051551551551565</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.740140140140161</v>
+        <v>-8.312062062062108</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.59259259259264</v>
+        <v>14.41516516516524</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0652946842941946</v>
+        <v>0.005872650503561228</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0652946842941946</v>
+        <v>0.005872650503561228</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>8.541146434945951</v>
+        <v>9.682074346823898</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.2699928819767514, 17.352285751868653]</t>
+          <t>[1.6879265754646973, 17.676222118183098]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.05713028416330967</v>
+        <v>0.01871909385962267</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05713028416330967</v>
+        <v>0.01871909385962267</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.823947686768848</v>
+        <v>-0.767315923399309</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.3460005840035425, -0.3018947895341544]</t>
+          <t>[-1.4591581494150798, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01992851005242802</v>
+        <v>0.0305091774412769</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01992851005242802</v>
+        <v>0.0305091774412769</v>
       </c>
       <c r="T4" t="n">
-        <v>14.24533349440989</v>
+        <v>13.04389140939376</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.338278796492496, 19.15238819232728]</t>
+          <t>[8.961466208759806, 17.126316610027718]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.264859690434776e-07</v>
+        <v>7.035641025332495e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>5.264859690434776e-07</v>
+        <v>7.035641025332495e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>6.502502502502519</v>
+        <v>2.778278278278293</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.076276276276279</v>
+        <v>0.273273273273273</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.92872872872876</v>
+        <v>5.283283283283313</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1054474699540243</v>
+        <v>0.1242231856775644</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1054474699540243</v>
+        <v>0.1242231856775644</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.953782009426963</v>
+        <v>6.891305662339375</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.3969010727523834, 13.304465091606309]</t>
+          <t>[-1.6638151432166648, 15.446426467895416]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1097965182243659</v>
+        <v>0.1117046160061141</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1097965182243659</v>
+        <v>0.1117046160061141</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.0943951023931966, 1.5157634224527339]</t>
+          <t>[-1.8805529598065025, 1.528342372016656]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.7483283334881099</v>
+        <v>0.8360904816678305</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7483283334881099</v>
+        <v>0.8360904816678305</v>
       </c>
       <c r="T5" t="n">
-        <v>11.75551799722835</v>
+        <v>11.99754233546003</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.742269482999429, 15.768766511457269]</t>
+          <t>[7.185360374114387, 16.809724296805676]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.398829192009401e-07</v>
+        <v>8.563748999490528e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.398829192009401e-07</v>
+        <v>8.563748999490528e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>1.031431431431436</v>
+        <v>0.637637637637642</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.403803803803821</v>
+        <v>-5.533783783783811</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.466666666666693</v>
+        <v>6.809059059059095</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2262862463872168</v>
+        <v>0.6955894788646446</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2262862463872168</v>
+        <v>0.6955894788646446</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.828892713039194</v>
+        <v>2.452425061734066</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.496916526125858, 14.154701952204245]</t>
+          <t>[-5.139150725416588, 10.04400084888472]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1653931549243881</v>
+        <v>0.5185827610086979</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1653931549243881</v>
+        <v>0.5185827610086979</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04402632347373192</v>
+        <v>-0.2264210921506153</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.9371847231760406, 3.0252373701235045]</t>
+          <t>[-3.358579533567467, 2.905737349266236]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9764026347912504</v>
+        <v>0.8848891126036755</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9764026347912504</v>
+        <v>0.8848891126036755</v>
       </c>
       <c r="T6" t="n">
-        <v>12.78832375032359</v>
+        <v>11.85298475344798</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.912674925352334, 17.663972575294846]</t>
+          <t>[7.670982851742025, 16.034986655153944]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.568365706474452e-06</v>
+        <v>8.439077423538777e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.568365706474452e-06</v>
+        <v>8.439077423538777e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>22.2430430430431</v>
+        <v>0.8198198198198199</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.61481481481485</v>
+        <v>-10.52102102102108</v>
       </c>
       <c r="Z6" t="n">
-        <v>32.87127127127135</v>
+        <v>12.16066066066072</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.289743968681855</v>
+        <v>0.3234218969790599</v>
       </c>
       <c r="I7" t="n">
-        <v>0.289743968681855</v>
+        <v>0.3234218969790599</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.773608005958589</v>
+        <v>3.723422295301761</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.284013829614929, 15.831229841532107]</t>
+          <t>[-3.1106092504148535, 10.557453841018376]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.253700069593042</v>
+        <v>0.2783237456943048</v>
       </c>
       <c r="O7" t="n">
-        <v>0.253700069593042</v>
+        <v>0.2783237456943048</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2893158399702314</v>
+        <v>0.4339737599553457</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.358579533567466, 2.7799478536270033]</t>
+          <t>[-2.6918952066795425, 3.559842726590234]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8502773543448661</v>
+        <v>0.7810472666126282</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8502773543448661</v>
+        <v>0.7810472666126282</v>
       </c>
       <c r="T7" t="n">
-        <v>16.68424684440343</v>
+        <v>10.35541525560169</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[11.378427125927214, 21.99006656287965]</t>
+          <t>[6.8273950092346425, 13.88343550196873]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.976143622303368e-08</v>
+        <v>4.22062769178666e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>9.976143622303368e-08</v>
+        <v>4.22062769178666e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>1.031431431431436</v>
+        <v>21.17867867867879</v>
       </c>
       <c r="Y7" t="n">
-        <v>-9.910710710710735</v>
+        <v>9.860610610610671</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.97357357357361</v>
+        <v>32.49674674674691</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4787560927858847</v>
+        <v>0.1011819617080455</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4787560927858847</v>
+        <v>0.1011819617080455</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.407385481401016</v>
+        <v>8.605610081863301</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.397075053716083, 14.211846016518116]</t>
+          <t>[-2.1868886015451423, 19.398108765271743]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3700773157754833</v>
+        <v>0.1152728433059789</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3700773157754833</v>
+        <v>0.1152728433059789</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6100790538502707</v>
+        <v>0.786184347745194</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.503210963220696, 3.7233690709212373]</t>
+          <t>[-2.251631971942234, 3.824000667432622]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6949414309696471</v>
+        <v>0.6047497332690928</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6949414309696471</v>
+        <v>0.6047497332690928</v>
       </c>
       <c r="T8" t="n">
-        <v>14.3104615016559</v>
+        <v>17.78022682283749</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.167716220440585, 19.45320678287122]</t>
+          <t>[12.225856279905937, 23.334597365769053]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.201855442722888e-06</v>
+        <v>6.750765169094564e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.201855442722888e-06</v>
+        <v>6.750765169094564e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>20.22502502502508</v>
+        <v>19.90340340340351</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.125925925925948</v>
+        <v>8.904154154154199</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.32412412412421</v>
+        <v>30.90265265265281</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.40000000000006</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0146289651464151</v>
+        <v>0.1288786036713645</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0146289651464151</v>
+        <v>0.1288786036713645</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>9.812433172253392</v>
+        <v>7.292285851420515</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[1.153008930707987, 18.471857413798798]</t>
+          <t>[-1.439537512713735, 16.024109215554766]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.02725146867591599</v>
+        <v>0.09948580013951491</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02725146867591599</v>
+        <v>0.09948580013951491</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9622896416401172</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.132078970421194, 1.7925003128590404]</t>
+          <t>[-0.5975001042863477, 3.176184764890581]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02409002869722898</v>
+        <v>0.1755380131577329</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02409002869722898</v>
+        <v>0.1755380131577329</v>
       </c>
       <c r="T9" t="n">
-        <v>15.90336253726247</v>
+        <v>15.34904369016907</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[11.40420301902986, 20.40252205549507]</t>
+          <t>[10.445701516658513, 20.252385863679624]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.781788908227782e-09</v>
+        <v>1.100252504659949e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>6.781788908227782e-09</v>
+        <v>1.100252504659949e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>18.96936936936942</v>
+        <v>18.08158158158168</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.00960960960966</v>
+        <v>11.24974974974981</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.92912912912918</v>
+        <v>24.91341341341354</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.76000000000028</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2275846405175282</v>
+        <v>0.4506184291159443</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2275846405175282</v>
+        <v>0.4506184291159443</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.371624906147111</v>
+        <v>3.932265290353818</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.727791634525283, 16.471041446819505]</t>
+          <t>[-3.910915007655714, 11.77544558836335]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2103731338663544</v>
+        <v>0.3179935178290099</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2103731338663544</v>
+        <v>0.3179935178290099</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9245527929483472</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.201316173686541, 4.0504217595832355]</t>
+          <t>[-1.6038160694001942, 4.534711317794276]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5543463984890256</v>
+        <v>0.3413636485688027</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5543463984890256</v>
+        <v>0.3413636485688027</v>
       </c>
       <c r="T10" t="n">
-        <v>13.62638537678112</v>
+        <v>11.60994900380652</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.451862936413281, 18.800907817148957]</t>
+          <t>[7.202741134401471, 16.01715687321157]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.323895004569977e-06</v>
+        <v>3.30257510205989e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.323895004569977e-06</v>
+        <v>3.30257510205989e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>20.26378378378402</v>
+        <v>18.54042042042068</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.443243243243348</v>
+        <v>6.728768768768862</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.0843243243247</v>
+        <v>30.3520720720725</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.76000000000028</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02960820044334955</v>
+        <v>0.1122300730878619</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02960820044334955</v>
+        <v>0.1122300730878619</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>9.162944900976207</v>
+        <v>6.663122517625089</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.7368248613199384, 17.589064940632475]</t>
+          <t>[-1.2694103064040014, 14.59565534165418]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03373070002557332</v>
+        <v>0.09759987970549333</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03373070002557332</v>
+        <v>0.09759987970549333</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3081842643161155</v>
+        <v>1.314500229429963</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, 1.54721079636254]</t>
+          <t>[-0.4465527095192714, 3.075553168379197]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.6188340936058769</v>
+        <v>0.1397262156781771</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6188340936058769</v>
+        <v>0.1397262156781771</v>
       </c>
       <c r="T11" t="n">
-        <v>14.22411151951815</v>
+        <v>14.2876326411805</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.477770286291936, 18.97045275274437]</t>
+          <t>[9.850966816869944, 18.72429846549106]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.760978414784176e-07</v>
+        <v>5.911970513139408e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>2.760978414784176e-07</v>
+        <v>5.911970513139408e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>22.59459459459486</v>
+        <v>19.1213213213216</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.9091891891894</v>
+        <v>12.34414414414432</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.28000000000032</v>
+        <v>25.89849849849887</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.76000000000028</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1175851146669411</v>
+        <v>0.181566059668636</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1175851146669411</v>
+        <v>0.181566059668636</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.474725344011224</v>
+        <v>6.272607741280742</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.60316291765702, 16.55261360567947]</t>
+          <t>[-3.0093770211179063, 15.554592503679391]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1041900593904206</v>
+        <v>0.1802604879167324</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1041900593904206</v>
+        <v>0.1802604879167324</v>
       </c>
       <c r="P12" t="n">
-        <v>1.364816027685657</v>
+        <v>0.8993948938205012</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.3207632138800376, 3.050395269251351]</t>
+          <t>[-2.220184598032427, 4.018974385673429]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1099080763576064</v>
+        <v>0.5643537271829175</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1099080763576064</v>
+        <v>0.5643537271829175</v>
       </c>
       <c r="T12" t="n">
-        <v>14.66962778159888</v>
+        <v>10.53232886825884</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.675464756820423, 19.663790806377342]</t>
+          <t>[5.789118213784512, 15.275539522733176]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.158306934343159e-07</v>
+        <v>5.20596432345144e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>4.158306934343159e-07</v>
+        <v>5.20596432345144e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>18.59891891891913</v>
+        <v>20.71879879879909</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.22486486486501</v>
+        <v>8.713513513513638</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.97297297297326</v>
+        <v>32.72408408408455</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.76000000000028</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4977980506358126</v>
+        <v>0.126356726970106</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4977980506358126</v>
+        <v>0.126356726970106</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.767570592042299</v>
+        <v>6.810850249433962</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.735451534444341, 12.270592718528938]</t>
+          <t>[-2.237348402642972, 15.859048901510896]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.3769147823733565</v>
+        <v>0.1364939529278044</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3769147823733565</v>
+        <v>0.1364939529278044</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6226580034141938</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.515789912784619, 3.7611059196130063]</t>
+          <t>[-2.364842518017542, 3.912053314380082]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6913476487253916</v>
+        <v>0.6219848030444899</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6913476487253916</v>
+        <v>0.6219848030444899</v>
       </c>
       <c r="T13" t="n">
-        <v>12.63534490737817</v>
+        <v>11.85229075143732</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.124165079288574, 17.14652473546776]</t>
+          <t>[7.196380824075124, 16.508200678799515]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.060789046158916e-06</v>
+        <v>6.016141459896929e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.060789046158916e-06</v>
+        <v>6.016141459896929e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>21.40540540540565</v>
+        <v>21.20288288288318</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.537297297297407</v>
+        <v>9.124984984985117</v>
       </c>
       <c r="Z13" t="n">
-        <v>33.2735135135139</v>
+        <v>33.28078078078125</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.76000000000028</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6750323404629263</v>
+        <v>0.0009478808550952289</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6750323404629263</v>
+        <v>0.0009478808550952289</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.06604505071396</v>
+        <v>11.91560573613224</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-6.068399337813954, 12.200489439241874]</t>
+          <t>[3.9914529553871, 19.83975851687738]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.5024694568470016</v>
+        <v>0.004059000666485124</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5024694568470016</v>
+        <v>0.004059000666485124</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9748685912040402</v>
+        <v>1.10065808684327</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.163579324994773, 4.113316507402853]</t>
+          <t>[0.42139481039142357, 1.7799213632951174]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5347223249287798</v>
+        <v>0.002104617734991265</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5347223249287798</v>
+        <v>0.002104617734991265</v>
       </c>
       <c r="T14" t="n">
-        <v>13.29453612811378</v>
+        <v>12.90118085649254</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.403730167045843, 18.185342089181724]</t>
+          <t>[8.694056512334633, 17.108305200650456]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.865560466551841e-06</v>
+        <v>1.70854116632313e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.865560466551841e-06</v>
+        <v>1.70854116632313e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>20.07351351351375</v>
+        <v>19.94426426426455</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.205405405405498</v>
+        <v>17.33021021021046</v>
       </c>
       <c r="Z14" t="n">
-        <v>31.94162162162199</v>
+        <v>22.55831831831864</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.76000000000028</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2148391215260752</v>
+        <v>0.6342776803213539</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2148391215260752</v>
+        <v>0.6342776803213539</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.84316824384173</v>
+        <v>3.47271700381166</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.7374286383828705, 14.423765126066332]</t>
+          <t>[-6.0139887322458545, 12.959422739869174]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1770029920700154</v>
+        <v>0.4647758147136285</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1770029920700154</v>
+        <v>0.4647758147136285</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3585000625718076</v>
+        <v>-0.1509473947670772</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.4843425388748126, 3.2013426640184277]</t>
+          <t>[-3.2893953109658898, 2.9875005214317354]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.8006595641771108</v>
+        <v>0.9232592340297312</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8006595641771108</v>
+        <v>0.9232592340297312</v>
       </c>
       <c r="T15" t="n">
-        <v>13.50710436583299</v>
+        <v>14.3795235762128</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.82778741906564, 18.18642131260035]</t>
+          <t>[9.24109465863058, 19.51795249379503]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.895766972408012e-07</v>
+        <v>1.07886105382704e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>5.895766972408012e-07</v>
+        <v>1.07886105382704e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>22.40432432432459</v>
+        <v>0.580900900900911</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.65405405405419</v>
+        <v>-11.49699699699716</v>
       </c>
       <c r="Z15" t="n">
-        <v>33.15459459459498</v>
+        <v>12.65879879879898</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_7_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_7_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1608938545744234</v>
+        <v>0.5434354897122278</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1608938545744234</v>
+        <v>0.5434354897122278</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.397655154538755</v>
+        <v>3.887464571840693</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.83839447934772, 17.63370478842523]</t>
+          <t>[-4.801959364015331, 12.576888507696715]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1524433584489739</v>
+        <v>0.3723499358986191</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1524433584489739</v>
+        <v>0.3723499358986191</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-1.522052897234695</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.006395436109506, 2.169868799776734]</t>
+          <t>[-4.660500813433507, 1.6163950189641172]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.5522438347941148</v>
+        <v>0.3339003199233663</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5522438347941148</v>
+        <v>0.3339003199233663</v>
       </c>
       <c r="T2" t="n">
-        <v>13.59083071794687</v>
+        <v>12.26282936171948</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.200003829740513, 18.981657606153227]</t>
+          <t>[7.39898142384914, 17.12667729958981]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.09748791516418e-06</v>
+        <v>7.091923407420708e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.09748791516418e-06</v>
+        <v>7.091923407420708e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>3.324824824824844</v>
+        <v>5.523123123123156</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.856606606606645</v>
+        <v>-5.865465465465494</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.50625625625633</v>
+        <v>16.91171171171181</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3570822783852973</v>
+        <v>0.1967022761165677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3570822783852973</v>
+        <v>0.1967022761165677</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.169301499949657</v>
+        <v>6.665559202895667</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.648090892454154, 17.98669389235347]</t>
+          <t>[-2.6727943603589814, 16.003912766150314]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2986574807592417</v>
+        <v>0.157456126056565</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2986574807592417</v>
+        <v>0.157456126056565</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-1.220158107700541</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.9812375369816593, 2.295658295415965]</t>
+          <t>[-4.314579700425622, 1.8742634850245405]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5912705217958192</v>
+        <v>0.4312596110701836</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5912705217958192</v>
+        <v>0.4312596110701836</v>
       </c>
       <c r="T3" t="n">
-        <v>17.9295470251978</v>
+        <v>14.5450594800389</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[11.857577137450548, 24.00151691294505]</t>
+          <t>[9.451001980870625, 19.639116979207177]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.738171523437472e-07</v>
+        <v>7.306507125992567e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.738171523437472e-07</v>
+        <v>7.306507125992567e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.051551551551565</v>
+        <v>4.427627627627654</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.312062062062108</v>
+        <v>-6.801201201201236</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.41516516516524</v>
+        <v>15.65645645645654</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005872650503561228</v>
+        <v>0.1250695154905285</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005872650503561228</v>
+        <v>0.1250695154905285</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>9.682074346823898</v>
+        <v>7.068610380126252</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.6879265754646973, 17.676222118183098]</t>
+          <t>[-1.0201268628847657, 15.15734762313727]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01871909385962267</v>
+        <v>0.08518853434612828</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01871909385962267</v>
+        <v>0.08518853434612828</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.767315923399309</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.4591581494150798, -0.07547369738353815]</t>
+          <t>[-3.3208426848756982, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0305091774412769</v>
+        <v>0.04065260629887657</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0305091774412769</v>
+        <v>0.04065260629887657</v>
       </c>
       <c r="T4" t="n">
-        <v>13.04389140939376</v>
+        <v>12.15835128470975</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.961466208759806, 17.126316610027718]</t>
+          <t>[7.445915423289227, 16.870787146130276]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.035641025332495e-08</v>
+        <v>4.768977510227757e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>7.035641025332495e-08</v>
+        <v>4.768977510227757e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>2.778278278278293</v>
+        <v>6.162162162162197</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.273273273273273</v>
+        <v>0.2738738738738737</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.283283283283313</v>
+        <v>12.05045045045052</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1242231856775644</v>
+        <v>0.4559939856453451</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1242231856775644</v>
+        <v>0.4559939856453451</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.891305662339375</v>
+        <v>3.910843580819231</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.6638151432166648, 15.446426467895416]</t>
+          <t>[-4.677320207708608, 12.49900736934707]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1117046160061141</v>
+        <v>0.3639408924419087</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1117046160061141</v>
+        <v>0.3639408924419087</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1761052938949232</v>
+        <v>-0.2641579408423853</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.8805529598065025, 1.528342372016656]</t>
+          <t>[-3.37115848313139, 2.8428426014466193]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8360904816678305</v>
+        <v>0.8648031004341312</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8360904816678305</v>
+        <v>0.8648031004341312</v>
       </c>
       <c r="T5" t="n">
-        <v>11.99754233546003</v>
+        <v>13.93281595492588</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.185360374114387, 16.809724296805676]</t>
+          <t>[9.42582293293661, 18.43980897691516]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.563748999490528e-06</v>
+        <v>1.439303598527175e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>8.563748999490528e-06</v>
+        <v>1.439303598527175e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>0.637637637637642</v>
+        <v>0.9585585585585648</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.533783783783811</v>
+        <v>-10.31591591591597</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.809059059059095</v>
+        <v>12.2330330330331</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6955894788646446</v>
+        <v>0.0363489773675304</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6955894788646446</v>
+        <v>0.0363489773675304</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2.452425061734066</v>
+        <v>7.959336863641679</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.139150725416588, 10.04400084888472]</t>
+          <t>[0.18039238071972719, 15.73828134656363]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.5185827610086979</v>
+        <v>0.04512901933234947</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5185827610086979</v>
+        <v>0.04512901933234947</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2264210921506153</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.358579533567467, 2.905737349266236]</t>
+          <t>[-0.47171060864711656, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8848891126036755</v>
+        <v>0.168356123695816</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8848891126036755</v>
+        <v>0.168356123695816</v>
       </c>
       <c r="T6" t="n">
-        <v>11.85298475344798</v>
+        <v>11.67791953505058</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.670982851742025, 16.034986655153944]</t>
+          <t>[7.505025110140721, 15.850813959960433]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.439077423538777e-07</v>
+        <v>1.078198051063239e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>8.439077423538777e-07</v>
+        <v>1.078198051063239e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8198198198198199</v>
+        <v>18.8972972972974</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.52102102102108</v>
+        <v>13.28288288288296</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.16066066066072</v>
+        <v>24.51171171171185</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3234218969790599</v>
+        <v>0.2153134414962088</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3234218969790599</v>
+        <v>0.2153134414962088</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.723422295301761</v>
+        <v>5.633538069946878</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.1106092504148535, 10.557453841018376]</t>
+          <t>[-2.5492106620076616, 13.816286801901418]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2783237456943048</v>
+        <v>0.1723830119426253</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2783237456943048</v>
+        <v>0.1723830119426253</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4339737599553457</v>
+        <v>-0.1886842434588463</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.6918952066795425, 3.559842726590234]</t>
+          <t>[-3.0629742188152735, 2.685605731897581]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7810472666126282</v>
+        <v>0.8954021976218776</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7810472666126282</v>
+        <v>0.8954021976218776</v>
       </c>
       <c r="T7" t="n">
-        <v>10.35541525560169</v>
+        <v>12.2829943418327</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.8273950092346425, 13.88343550196873]</t>
+          <t>[7.675012834738905, 16.89097584892649]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.22062769178666e-07</v>
+        <v>2.670445669261667e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>4.22062769178666e-07</v>
+        <v>2.670445669261667e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>21.17867867867879</v>
+        <v>0.6846846846846866</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.860610610610671</v>
+        <v>-9.745345345345401</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.49674674674691</v>
+        <v>11.11471471471477</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1011819617080455</v>
+        <v>0.07331756294653613</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1011819617080455</v>
+        <v>0.07331756294653613</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>8.605610081863301</v>
+        <v>7.57130091584383</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.1868886015451423, 19.398108765271743]</t>
+          <t>[-1.2423640574156956, 16.384965889103356]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1152728433059789</v>
+        <v>0.09044870400057814</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1152728433059789</v>
+        <v>0.09044870400057814</v>
       </c>
       <c r="P8" t="n">
-        <v>0.786184347745194</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.251631971942234, 3.824000667432622]</t>
+          <t>[-2.220184598032426, 3.5912901005000437]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6047497332690928</v>
+        <v>0.6369507753471262</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6047497332690928</v>
+        <v>0.6369507753471262</v>
       </c>
       <c r="T8" t="n">
-        <v>17.78022682283749</v>
+        <v>11.60688926758561</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[12.225856279905937, 23.334597365769053]</t>
+          <t>[7.022236542440936, 16.191541992730293]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.750765169094564e-08</v>
+        <v>6.609570474047644e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>6.750765169094564e-08</v>
+        <v>6.609570474047644e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>19.90340340340351</v>
+        <v>20.31231231231242</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.904154154154199</v>
+        <v>9.76816816816822</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.90265265265281</v>
+        <v>30.85645645645662</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.75000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1288786036713645</v>
+        <v>0.1388057404061072</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1288786036713645</v>
+        <v>0.1388057404061072</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.292285851420515</v>
+        <v>6.430094738215122</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.439537512713735, 16.024109215554766]</t>
+          <t>[-1.5678540723781946, 14.42804354880844]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.09948580013951491</v>
+        <v>0.1123764299545855</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09948580013951491</v>
+        <v>0.1123764299545855</v>
       </c>
       <c r="P9" t="n">
-        <v>1.289342330302117</v>
+        <v>-0.1635263443310002</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5975001042863477, 3.176184764890581]</t>
+          <t>[-1.9057108589343486, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1755380131577329</v>
+        <v>0.8509041696185511</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1755380131577329</v>
+        <v>0.8509041696185511</v>
       </c>
       <c r="T9" t="n">
-        <v>15.34904369016907</v>
+        <v>15.01366854930323</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.445701516658513, 20.252385863679624]</t>
+          <t>[10.403020822783756, 19.624316275822704]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.100252504659949e-07</v>
+        <v>4.61338716117865e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.100252504659949e-07</v>
+        <v>4.61338716117865e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>18.08158158158168</v>
+        <v>0.5933933933933986</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.24974974974981</v>
+        <v>-5.728528528528557</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.91341341341354</v>
+        <v>6.915315315315354</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.18000000000034</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4506184291159443</v>
+        <v>0.2587851571285493</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4506184291159443</v>
+        <v>0.2587851571285493</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.932265290353818</v>
+        <v>6.097397635735462</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.910915007655714, 11.77544558836335]</t>
+          <t>[-3.8661884176490595, 16.060983689119983]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3179935178290099</v>
+        <v>0.2241382375467598</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3179935178290099</v>
+        <v>0.2241382375467598</v>
       </c>
       <c r="P10" t="n">
-        <v>1.465447624197041</v>
+        <v>0.7736053981812709</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.6038160694001942, 4.534711317794276]</t>
+          <t>[-2.3585530432355792, 3.905763839598121]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3413636485688027</v>
+        <v>0.6212873519664472</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3413636485688027</v>
+        <v>0.6212873519664472</v>
       </c>
       <c r="T10" t="n">
-        <v>11.60994900380652</v>
+        <v>14.48056004938005</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.202741134401471, 16.01715687321157]</t>
+          <t>[9.306266436810596, 19.65485366194951]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.30257510205989e-06</v>
+        <v>1.077902824997423e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.30257510205989e-06</v>
+        <v>1.077902824997423e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>18.54042042042068</v>
+        <v>21.7553153153157</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.728768768768862</v>
+        <v>9.387567567567734</v>
       </c>
       <c r="Z10" t="n">
-        <v>30.3520720720725</v>
+        <v>34.12306306306366</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.18000000000034</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1122300730878619</v>
+        <v>0.3373632663844801</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1122300730878619</v>
+        <v>0.3373632663844801</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.663122517625089</v>
+        <v>5.051220696368034</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.2694103064040014, 14.59565534165418]</t>
+          <t>[-4.217317789370112, 14.31975918210618]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.09759987970549333</v>
+        <v>0.2781929342459992</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09759987970549333</v>
+        <v>0.2781929342459992</v>
       </c>
       <c r="P11" t="n">
-        <v>1.314500229429963</v>
+        <v>2.39628989192735</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.4465527095192714, 3.075553168379197]</t>
+          <t>[-0.7421580242714629, 5.534737808126163]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1397262156781771</v>
+        <v>0.1310945791236078</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1397262156781771</v>
+        <v>0.1310945791236078</v>
       </c>
       <c r="T11" t="n">
-        <v>14.2876326411805</v>
+        <v>12.76988556811179</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.850966816869944, 18.72429846549106]</t>
+          <t>[7.928408484268281, 17.611362651955304]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.911970513139408e-08</v>
+        <v>3.229622862921389e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.911970513139408e-08</v>
+        <v>3.229622862921389e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>19.1213213213216</v>
+        <v>15.3479279279282</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.34414414414432</v>
+        <v>2.955345345345394</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.89849849849887</v>
+        <v>27.740510510511</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.18000000000034</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.181566059668636</v>
+        <v>0.2249444035955328</v>
       </c>
       <c r="I12" t="n">
-        <v>0.181566059668636</v>
+        <v>0.2249444035955328</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.272607741280742</v>
+        <v>5.503632990902656</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.0093770211179063, 15.554592503679391]</t>
+          <t>[-2.6801731291055644, 13.687439110910876]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1802604879167324</v>
+        <v>0.182342279151678</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1802604879167324</v>
+        <v>0.182342279151678</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8993948938205012</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.220184598032427, 4.018974385673429]</t>
+          <t>[-1.484316048542925, 4.188790204786389]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5643537271829175</v>
+        <v>0.3421055027095576</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5643537271829175</v>
+        <v>0.3421055027095576</v>
       </c>
       <c r="T12" t="n">
-        <v>10.53232886825884</v>
+        <v>11.83938059891879</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.789118213784512, 15.275539522733176]</t>
+          <t>[7.320275960641169, 16.35848523719642]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.20596432345144e-05</v>
+        <v>3.642813009019363e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>5.20596432345144e-05</v>
+        <v>3.642813009019363e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>20.71879879879909</v>
+        <v>19.47051051051086</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.713513513513638</v>
+        <v>8.270000000000154</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.72408408408455</v>
+        <v>30.67102102102157</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.18000000000034</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.126356726970106</v>
+        <v>0.4337816816950945</v>
       </c>
       <c r="I13" t="n">
-        <v>0.126356726970106</v>
+        <v>0.4337816816950945</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.810850249433962</v>
+        <v>4.303474423744986</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-2.237348402642972, 15.859048901510896]</t>
+          <t>[-4.088565024544118, 12.695513872034091]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1364939529278044</v>
+        <v>0.3071974288789412</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1364939529278044</v>
+        <v>0.3071974288789412</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7736053981812701</v>
+        <v>1.591237119836272</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.364842518017542, 3.912053314380082]</t>
+          <t>[-1.5283423720166551, 4.710816611689199]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6219848030444899</v>
+        <v>0.3097440798085285</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6219848030444899</v>
+        <v>0.3097440798085285</v>
       </c>
       <c r="T13" t="n">
-        <v>11.85229075143732</v>
+        <v>11.35371399652001</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.196380824075124, 16.508200678799515]</t>
+          <t>[6.57516223976301, 16.132265753277018]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.016141459896929e-06</v>
+        <v>1.872560173832305e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>6.016141459896929e-06</v>
+        <v>1.872560173832305e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>21.20288288288318</v>
+        <v>18.52678678678711</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.124984984985117</v>
+        <v>6.208708708708819</v>
       </c>
       <c r="Z13" t="n">
-        <v>33.28078078078125</v>
+        <v>30.84486486486541</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.18000000000034</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009478808550952289</v>
+        <v>0.04473474386485399</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0009478808550952289</v>
+        <v>0.04473474386485399</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>11.91560573613224</v>
+        <v>8.726405055759018</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[3.9914529553871, 19.83975851687738]</t>
+          <t>[-0.5556114043921241, 18.00842151591016]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.004059000666485124</v>
+        <v>0.06472605126589781</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004059000666485124</v>
+        <v>0.06472605126589781</v>
       </c>
       <c r="P14" t="n">
-        <v>1.10065808684327</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 1.7799213632951174]</t>
+          <t>[-1.4780265737609635, 3.2013426640184277]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.002104617734991265</v>
+        <v>0.4620908616982424</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002104617734991265</v>
+        <v>0.4620908616982424</v>
       </c>
       <c r="T14" t="n">
-        <v>12.90118085649254</v>
+        <v>13.93534582920543</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.694056512334633, 17.108305200650456]</t>
+          <t>[9.139878575586135, 18.730813082824717]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.70854116632313e-07</v>
+        <v>5.160638474333012e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.70854116632313e-07</v>
+        <v>5.160638474333012e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>19.94426426426455</v>
+        <v>21.40762762762801</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.33021021021046</v>
+        <v>12.16906906906929</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.55831831831864</v>
+        <v>30.64618618618672</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.18000000000034</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6342776803213539</v>
+        <v>0.002796079154378406</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6342776803213539</v>
+        <v>0.002796079154378406</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>3.47271700381166</v>
+        <v>10.90693627854342</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-6.0139887322458545, 12.959422739869174]</t>
+          <t>[3.4223898435237743, 18.391482713563065]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.4647758147136285</v>
+        <v>0.005235069968125838</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4647758147136285</v>
+        <v>0.005235069968125838</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1509473947670772</v>
+        <v>-0.2515789912784623</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-3.2893953109658898, 2.9875005214317354]</t>
+          <t>[-1.1132370364071953, 0.6100790538502707]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.9232592340297312</v>
+        <v>0.5594323004907356</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9232592340297312</v>
+        <v>0.5594323004907356</v>
       </c>
       <c r="T15" t="n">
-        <v>14.3795235762128</v>
+        <v>13.48291394217642</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[9.24109465863058, 19.51795249379503]</t>
+          <t>[9.2948375163405, 17.67099036801234]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.07886105382704e-06</v>
+        <v>5.952752024640517e-08</v>
       </c>
       <c r="W15" t="n">
-        <v>1.07886105382704e-06</v>
+        <v>5.952752024640517e-08</v>
       </c>
       <c r="X15" t="n">
-        <v>0.580900900900911</v>
+        <v>0.9933933933934149</v>
       </c>
       <c r="Y15" t="n">
-        <v>-11.49699699699716</v>
+        <v>-2.408978978979022</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.65879879879898</v>
+        <v>4.395765765765852</v>
       </c>
     </row>
   </sheetData>
